--- a/Plan/WBS_すばるovservingページ整理.xlsx
+++ b/Plan/WBS_すばるovservingページ整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marum\Desktop\すばる望遠鏡サイト整理\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C8F921-C485-479B-B5BE-BB1D615E438E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D82CDF0-54CC-40B4-B46C-FA3E07BAC1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="154">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -3168,6 +3168,10 @@
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024.5.26</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3434,7 +3438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3464,7 +3468,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3490,9 +3493,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3502,15 +3502,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7665,10 +7668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCBAAB5-A7A3-4693-8BC3-D1D55BD44A1A}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K11" sqref="K11:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7696,6 +7699,11 @@
     <row r="10" spans="2:2">
       <c r="B10" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8067,134 +8075,134 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="3.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="51.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="51.5" style="13" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="30" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="B5" s="17"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="32.5" customHeight="1">
-      <c r="B6" s="17"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="18" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="17"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="17"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="B9" s="17"/>
-      <c r="C9" s="24" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="B10" s="19"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" ht="33">
-      <c r="B12" s="17"/>
-      <c r="C12" s="25" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="99">
-      <c r="B13" s="17"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="82.5">
-      <c r="B14" s="19"/>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>149</v>
       </c>
     </row>
@@ -8220,26 +8228,26 @@
   <cols>
     <col min="1" max="1" width="3.58203125" customWidth="1"/>
     <col min="2" max="2" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="20.58203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" customWidth="1"/>
     <col min="5" max="5" width="5.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="22.5">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="19" customHeight="1">
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -8255,10 +8263,10 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8295,7 +8303,7 @@
       <c r="B10" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8316,7 +8324,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -8340,7 +8348,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>86</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -8582,7 +8590,7 @@
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="9"/>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8830,12 +8838,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.5">
-      <c r="A2" s="13"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:12" ht="19" customHeight="1">
       <c r="B3" t="s">
